--- a/Raw_Data/attendance_data_col.xlsx
+++ b/Raw_Data/attendance_data_col.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelle/Documents/bootcamp/project-one/Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEEB418-7B0A-5E41-B84F-9507400C881E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503A9744-6A11-8641-A433-0179F5E3A8FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{D5133A0B-69AE-1F4D-8B0A-DF2E70A6DF3F}"/>
   </bookViews>
   <sheets>
-    <sheet name="2019" sheetId="1" r:id="rId1"/>
-    <sheet name="2018" sheetId="2" r:id="rId2"/>
-    <sheet name="2017" sheetId="3" r:id="rId3"/>
-    <sheet name="2016" sheetId="4" r:id="rId4"/>
-    <sheet name="2015" sheetId="5" r:id="rId5"/>
+    <sheet name="all_years" sheetId="6" r:id="rId1"/>
+    <sheet name="2019" sheetId="1" r:id="rId2"/>
+    <sheet name="2018" sheetId="2" r:id="rId3"/>
+    <sheet name="2017" sheetId="3" r:id="rId4"/>
+    <sheet name="2016" sheetId="4" r:id="rId5"/>
+    <sheet name="2015" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="37">
   <si>
     <t>Home AVG</t>
   </si>
@@ -138,12 +139,15 @@
   <si>
     <t>Oklahoma City Thunder</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,6 +158,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,13 +189,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,16 +512,3057 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06ACA4B-2DF4-E94C-92AE-57BD1EAAE2D8}">
+  <dimension ref="A1:F151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="6" width="10.83203125" style="7"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C2" s="7">
+        <v>713909</v>
+      </c>
+      <c r="D2" s="7">
+        <v>17412</v>
+      </c>
+      <c r="E2" s="7">
+        <v>720873</v>
+      </c>
+      <c r="F2" s="7">
+        <v>17582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C3" s="7">
+        <v>721350</v>
+      </c>
+      <c r="D3" s="7">
+        <v>17594</v>
+      </c>
+      <c r="E3" s="7">
+        <v>727404</v>
+      </c>
+      <c r="F3" s="7">
+        <v>17742</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C4" s="7">
+        <v>698529</v>
+      </c>
+      <c r="D4" s="7">
+        <v>17037</v>
+      </c>
+      <c r="E4" s="7">
+        <v>739614</v>
+      </c>
+      <c r="F4" s="7">
+        <v>18039</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C5" s="7">
+        <v>704886</v>
+      </c>
+      <c r="D5" s="7">
+        <v>17192</v>
+      </c>
+      <c r="E5" s="7">
+        <v>723833</v>
+      </c>
+      <c r="F5" s="7">
+        <v>17654</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C6" s="7">
+        <v>896525</v>
+      </c>
+      <c r="D6" s="7">
+        <v>21866</v>
+      </c>
+      <c r="E6" s="7">
+        <v>754592</v>
+      </c>
+      <c r="F6" s="7">
+        <v>18405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C7" s="7">
+        <v>843042</v>
+      </c>
+      <c r="D7" s="7">
+        <v>20562</v>
+      </c>
+      <c r="E7" s="7">
+        <v>775537</v>
+      </c>
+      <c r="F7" s="7">
+        <v>18916</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C8" s="7">
+        <v>827702</v>
+      </c>
+      <c r="D8" s="7">
+        <v>20188</v>
+      </c>
+      <c r="E8" s="7">
+        <v>723792</v>
+      </c>
+      <c r="F8" s="7">
+        <v>17653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C9" s="7">
+        <v>602707</v>
+      </c>
+      <c r="D9" s="7">
+        <v>14700</v>
+      </c>
+      <c r="E9" s="7">
+        <v>714593</v>
+      </c>
+      <c r="F9" s="7">
+        <v>17429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C10" s="7">
+        <v>625917</v>
+      </c>
+      <c r="D10" s="7">
+        <v>15266</v>
+      </c>
+      <c r="E10" s="7">
+        <v>732519</v>
+      </c>
+      <c r="F10" s="7">
+        <v>17866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C11" s="7">
+        <v>803436</v>
+      </c>
+      <c r="D11" s="7">
+        <v>19596</v>
+      </c>
+      <c r="E11" s="7">
+        <v>750793</v>
+      </c>
+      <c r="F11" s="7">
+        <v>18312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C12" s="7">
+        <v>747412</v>
+      </c>
+      <c r="D12" s="7">
+        <v>18230</v>
+      </c>
+      <c r="E12" s="7">
+        <v>736761</v>
+      </c>
+      <c r="F12" s="7">
+        <v>17970</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C13" s="7">
+        <v>691434</v>
+      </c>
+      <c r="D13" s="7">
+        <v>16864</v>
+      </c>
+      <c r="E13" s="7">
+        <v>733593</v>
+      </c>
+      <c r="F13" s="7">
+        <v>17893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C14" s="7">
+        <v>785892</v>
+      </c>
+      <c r="D14" s="7">
+        <v>19168</v>
+      </c>
+      <c r="E14" s="7">
+        <v>741245</v>
+      </c>
+      <c r="F14" s="7">
+        <v>18079</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C15" s="7">
+        <v>768244</v>
+      </c>
+      <c r="D15" s="7">
+        <v>18738</v>
+      </c>
+      <c r="E15" s="7">
+        <v>732881</v>
+      </c>
+      <c r="F15" s="7">
+        <v>17875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C16" s="7">
+        <v>710502</v>
+      </c>
+      <c r="D16" s="7">
+        <v>17329</v>
+      </c>
+      <c r="E16" s="7">
+        <v>738717</v>
+      </c>
+      <c r="F16" s="7">
+        <v>18017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C17" s="7">
+        <v>808223</v>
+      </c>
+      <c r="D17" s="7">
+        <v>19713</v>
+      </c>
+      <c r="E17" s="7">
+        <v>725609</v>
+      </c>
+      <c r="F17" s="7">
+        <v>17698</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C18" s="7">
+        <v>611226</v>
+      </c>
+      <c r="D18" s="7">
+        <v>14908</v>
+      </c>
+      <c r="E18" s="7">
+        <v>725841</v>
+      </c>
+      <c r="F18" s="7">
+        <v>17703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C19" s="7">
+        <v>595652</v>
+      </c>
+      <c r="D19" s="7">
+        <v>14528</v>
+      </c>
+      <c r="E19" s="7">
+        <v>738032</v>
+      </c>
+      <c r="F19" s="7">
+        <v>18001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C20" s="7">
+        <v>683757</v>
+      </c>
+      <c r="D20" s="7">
+        <v>16677</v>
+      </c>
+      <c r="E20" s="7">
+        <v>723265</v>
+      </c>
+      <c r="F20" s="7">
+        <v>17641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C21" s="7">
+        <v>812292</v>
+      </c>
+      <c r="D21" s="7">
+        <v>19812</v>
+      </c>
+      <c r="E21" s="7">
+        <v>715966</v>
+      </c>
+      <c r="F21" s="7">
+        <v>17463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C22" s="7">
+        <v>746323</v>
+      </c>
+      <c r="D22" s="7">
+        <v>18203</v>
+      </c>
+      <c r="E22" s="7">
+        <v>736220</v>
+      </c>
+      <c r="F22" s="7">
+        <v>17957</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C23" s="7">
+        <v>688194</v>
+      </c>
+      <c r="D23" s="7">
+        <v>16785</v>
+      </c>
+      <c r="E23" s="7">
+        <v>721024</v>
+      </c>
+      <c r="F23" s="7">
+        <v>17586</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C24" s="7">
+        <v>571342</v>
+      </c>
+      <c r="D24" s="7">
+        <v>13935</v>
+      </c>
+      <c r="E24" s="7">
+        <v>724272</v>
+      </c>
+      <c r="F24" s="7">
+        <v>17665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C25" s="7">
+        <v>693862</v>
+      </c>
+      <c r="D25" s="7">
+        <v>16923</v>
+      </c>
+      <c r="E25" s="7">
+        <v>721033</v>
+      </c>
+      <c r="F25" s="7">
+        <v>17586</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C26" s="7">
+        <v>801377</v>
+      </c>
+      <c r="D26" s="7">
+        <v>19546</v>
+      </c>
+      <c r="E26" s="7">
+        <v>723952</v>
+      </c>
+      <c r="F26" s="7">
+        <v>17657</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C27" s="7">
+        <v>680049</v>
+      </c>
+      <c r="D27" s="7">
+        <v>16587</v>
+      </c>
+      <c r="E27" s="7">
+        <v>718130</v>
+      </c>
+      <c r="F27" s="7">
+        <v>17515</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C28" s="7">
+        <v>762855</v>
+      </c>
+      <c r="D28" s="7">
+        <v>18606</v>
+      </c>
+      <c r="E28" s="7">
+        <v>736866</v>
+      </c>
+      <c r="F28" s="7">
+        <v>17972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C29" s="7">
+        <v>809824</v>
+      </c>
+      <c r="D29" s="7">
+        <v>19752</v>
+      </c>
+      <c r="E29" s="7">
+        <v>718430</v>
+      </c>
+      <c r="F29" s="7">
+        <v>17523</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C30" s="7">
+        <v>772059</v>
+      </c>
+      <c r="D30" s="7">
+        <v>18831</v>
+      </c>
+      <c r="E30" s="7">
+        <v>702545</v>
+      </c>
+      <c r="F30" s="7">
+        <v>17135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C31" s="7">
+        <v>747796</v>
+      </c>
+      <c r="D31" s="7">
+        <v>18239</v>
+      </c>
+      <c r="E31" s="7">
+        <v>748386</v>
+      </c>
+      <c r="F31" s="7">
+        <v>18253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C32" s="7">
+        <v>690150</v>
+      </c>
+      <c r="D32" s="7">
+        <v>16833</v>
+      </c>
+      <c r="E32" s="7">
+        <v>722066</v>
+      </c>
+      <c r="F32" s="7">
+        <v>17611</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C33" s="7">
+        <v>749076</v>
+      </c>
+      <c r="D33" s="7">
+        <v>18270</v>
+      </c>
+      <c r="E33" s="7">
+        <v>715023</v>
+      </c>
+      <c r="F33" s="7">
+        <v>17440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C34" s="7">
+        <v>620142</v>
+      </c>
+      <c r="D34" s="7">
+        <v>15125</v>
+      </c>
+      <c r="E34" s="7">
+        <v>742352</v>
+      </c>
+      <c r="F34" s="7">
+        <v>18106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C35" s="7">
+        <v>716894</v>
+      </c>
+      <c r="D35" s="7">
+        <v>17485</v>
+      </c>
+      <c r="E35" s="7">
+        <v>729157</v>
+      </c>
+      <c r="F35" s="7">
+        <v>17784</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C36" s="7">
+        <v>894659</v>
+      </c>
+      <c r="D36" s="7">
+        <v>21821</v>
+      </c>
+      <c r="E36" s="7">
+        <v>744400</v>
+      </c>
+      <c r="F36" s="7">
+        <v>18156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C37" s="7">
+        <v>843042</v>
+      </c>
+      <c r="D37" s="7">
+        <v>20562</v>
+      </c>
+      <c r="E37" s="7">
+        <v>775317</v>
+      </c>
+      <c r="F37" s="7">
+        <v>18910</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C38" s="7">
+        <v>825901</v>
+      </c>
+      <c r="D38" s="7">
+        <v>20144</v>
+      </c>
+      <c r="E38" s="7">
+        <v>726812</v>
+      </c>
+      <c r="F38" s="7">
+        <v>17727</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C39" s="7">
+        <v>577898</v>
+      </c>
+      <c r="D39" s="7">
+        <v>14095</v>
+      </c>
+      <c r="E39" s="7">
+        <v>729120</v>
+      </c>
+      <c r="F39" s="7">
+        <v>17783</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C40" s="7">
+        <v>677138</v>
+      </c>
+      <c r="D40" s="7">
+        <v>16516</v>
+      </c>
+      <c r="E40" s="7">
+        <v>730383</v>
+      </c>
+      <c r="F40" s="7">
+        <v>17814</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C41" s="7">
+        <v>803436</v>
+      </c>
+      <c r="D41" s="7">
+        <v>19596</v>
+      </c>
+      <c r="E41" s="7">
+        <v>784499</v>
+      </c>
+      <c r="F41" s="7">
+        <v>19134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C42" s="7">
+        <v>737244</v>
+      </c>
+      <c r="D42" s="7">
+        <v>17982</v>
+      </c>
+      <c r="E42" s="7">
+        <v>727368</v>
+      </c>
+      <c r="F42" s="7">
+        <v>17741</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C43" s="7">
+        <v>690733</v>
+      </c>
+      <c r="D43" s="7">
+        <v>16847</v>
+      </c>
+      <c r="E43" s="7">
+        <v>731930</v>
+      </c>
+      <c r="F43" s="7">
+        <v>17852</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C44" s="7">
+        <v>786910</v>
+      </c>
+      <c r="D44" s="7">
+        <v>19193</v>
+      </c>
+      <c r="E44" s="7">
+        <v>729503</v>
+      </c>
+      <c r="F44" s="7">
+        <v>17793</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C45" s="7">
+        <v>778877</v>
+      </c>
+      <c r="D45" s="7">
+        <v>18997</v>
+      </c>
+      <c r="E45" s="7">
+        <v>785143</v>
+      </c>
+      <c r="F45" s="7">
+        <v>19150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C46" s="7">
+        <v>701894</v>
+      </c>
+      <c r="D46" s="7">
+        <v>17119</v>
+      </c>
+      <c r="E46" s="7">
+        <v>721186</v>
+      </c>
+      <c r="F46" s="7">
+        <v>17590</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C47" s="7">
+        <v>809350</v>
+      </c>
+      <c r="D47" s="7">
+        <v>19740</v>
+      </c>
+      <c r="E47" s="7">
+        <v>739821</v>
+      </c>
+      <c r="F47" s="7">
+        <v>18044</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C48" s="7">
+        <v>621808</v>
+      </c>
+      <c r="D48" s="7">
+        <v>15166</v>
+      </c>
+      <c r="E48" s="7">
+        <v>722548</v>
+      </c>
+      <c r="F48" s="7">
+        <v>17623</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C49" s="7">
+        <v>581178</v>
+      </c>
+      <c r="D49" s="7">
+        <v>14175</v>
+      </c>
+      <c r="E49" s="7">
+        <v>731110</v>
+      </c>
+      <c r="F49" s="7">
+        <v>17832</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C50" s="7">
+        <v>688549</v>
+      </c>
+      <c r="D50" s="7">
+        <v>16794</v>
+      </c>
+      <c r="E50" s="7">
+        <v>731893</v>
+      </c>
+      <c r="F50" s="7">
+        <v>17851</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C51" s="7">
+        <v>812292</v>
+      </c>
+      <c r="D51" s="7">
+        <v>19812</v>
+      </c>
+      <c r="E51" s="7">
+        <v>756070</v>
+      </c>
+      <c r="F51" s="7">
+        <v>18441</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C52" s="7">
+        <v>746323</v>
+      </c>
+      <c r="D52" s="7">
+        <v>18203</v>
+      </c>
+      <c r="E52" s="7">
+        <v>748617</v>
+      </c>
+      <c r="F52" s="7">
+        <v>18259</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C53" s="7">
+        <v>719275</v>
+      </c>
+      <c r="D53" s="7">
+        <v>17543</v>
+      </c>
+      <c r="E53" s="7">
+        <v>704188</v>
+      </c>
+      <c r="F53" s="7">
+        <v>17175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C54" s="7">
+        <v>610121</v>
+      </c>
+      <c r="D54" s="7">
+        <v>14881</v>
+      </c>
+      <c r="E54" s="7">
+        <v>717170</v>
+      </c>
+      <c r="F54" s="7">
+        <v>17492</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C55" s="7">
+        <v>701405</v>
+      </c>
+      <c r="D55" s="7">
+        <v>17107</v>
+      </c>
+      <c r="E55" s="7">
+        <v>709412</v>
+      </c>
+      <c r="F55" s="7">
+        <v>17303</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C56" s="7">
+        <v>794085</v>
+      </c>
+      <c r="D56" s="7">
+        <v>19368</v>
+      </c>
+      <c r="E56" s="7">
+        <v>725852</v>
+      </c>
+      <c r="F56" s="7">
+        <v>17704</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C57" s="7">
+        <v>707526</v>
+      </c>
+      <c r="D57" s="7">
+        <v>17257</v>
+      </c>
+      <c r="E57" s="7">
+        <v>711569</v>
+      </c>
+      <c r="F57" s="7">
+        <v>17355</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C58" s="7">
+        <v>756445</v>
+      </c>
+      <c r="D58" s="7">
+        <v>18450</v>
+      </c>
+      <c r="E58" s="7">
+        <v>735470</v>
+      </c>
+      <c r="F58" s="7">
+        <v>17938</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C59" s="7">
+        <v>812863</v>
+      </c>
+      <c r="D59" s="7">
+        <v>19826</v>
+      </c>
+      <c r="E59" s="7">
+        <v>703668</v>
+      </c>
+      <c r="F59" s="7">
+        <v>17163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C60" s="7">
+        <v>791489</v>
+      </c>
+      <c r="D60" s="7">
+        <v>19305</v>
+      </c>
+      <c r="E60" s="7">
+        <v>712518</v>
+      </c>
+      <c r="F60" s="7">
+        <v>17378</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C61" s="7">
+        <v>725426</v>
+      </c>
+      <c r="D61" s="7">
+        <v>17693</v>
+      </c>
+      <c r="E61" s="7">
+        <v>729274</v>
+      </c>
+      <c r="F61" s="7">
+        <v>17787</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C62" s="7">
+        <v>654306</v>
+      </c>
+      <c r="D62" s="7">
+        <v>15959</v>
+      </c>
+      <c r="E62" s="7">
+        <v>730479</v>
+      </c>
+      <c r="F62" s="7">
+        <v>17817</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C63" s="7">
+        <v>760690</v>
+      </c>
+      <c r="D63" s="7">
+        <v>18553</v>
+      </c>
+      <c r="E63" s="7">
+        <v>750843</v>
+      </c>
+      <c r="F63" s="7">
+        <v>18313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C64" s="7">
+        <v>632608</v>
+      </c>
+      <c r="D64" s="7">
+        <v>15429</v>
+      </c>
+      <c r="E64" s="7">
+        <v>727958</v>
+      </c>
+      <c r="F64" s="7">
+        <v>17755</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C65" s="7">
+        <v>710643</v>
+      </c>
+      <c r="D65" s="7">
+        <v>17333</v>
+      </c>
+      <c r="E65" s="7">
+        <v>720119</v>
+      </c>
+      <c r="F65" s="7">
+        <v>17564</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C66" s="7">
+        <v>888882</v>
+      </c>
+      <c r="D66" s="7">
+        <v>21680</v>
+      </c>
+      <c r="E66" s="7">
+        <v>739359</v>
+      </c>
+      <c r="F66" s="7">
+        <v>18033</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C67" s="7">
+        <v>843042</v>
+      </c>
+      <c r="D67" s="7">
+        <v>20562</v>
+      </c>
+      <c r="E67" s="7">
+        <v>779880</v>
+      </c>
+      <c r="F67" s="7">
+        <v>19021</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C68" s="7">
+        <v>811366</v>
+      </c>
+      <c r="D68" s="7">
+        <v>19789</v>
+      </c>
+      <c r="E68" s="7">
+        <v>718291</v>
+      </c>
+      <c r="F68" s="7">
+        <v>17519</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C69" s="7">
+        <v>605585</v>
+      </c>
+      <c r="D69" s="7">
+        <v>14770</v>
+      </c>
+      <c r="E69" s="7">
+        <v>714236</v>
+      </c>
+      <c r="F69" s="7">
+        <v>17420</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C70" s="7">
+        <v>655141</v>
+      </c>
+      <c r="D70" s="7">
+        <v>15979</v>
+      </c>
+      <c r="E70" s="7">
+        <v>725680</v>
+      </c>
+      <c r="F70" s="7">
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C71" s="7">
+        <v>803436</v>
+      </c>
+      <c r="D71" s="7">
+        <v>19596</v>
+      </c>
+      <c r="E71" s="7">
+        <v>779621</v>
+      </c>
+      <c r="F71" s="7">
+        <v>19015</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C72" s="7">
+        <v>695903</v>
+      </c>
+      <c r="D72" s="7">
+        <v>16973</v>
+      </c>
+      <c r="E72" s="7">
+        <v>743761</v>
+      </c>
+      <c r="F72" s="7">
+        <v>18141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C73" s="7">
+        <v>684578</v>
+      </c>
+      <c r="D73" s="7">
+        <v>16697</v>
+      </c>
+      <c r="E73" s="7">
+        <v>731786</v>
+      </c>
+      <c r="F73" s="7">
+        <v>17848</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C74" s="7">
+        <v>782609</v>
+      </c>
+      <c r="D74" s="7">
+        <v>19088</v>
+      </c>
+      <c r="E74" s="7">
+        <v>733478</v>
+      </c>
+      <c r="F74" s="7">
+        <v>17890</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C75" s="7">
+        <v>776917</v>
+      </c>
+      <c r="D75" s="7">
+        <v>18949</v>
+      </c>
+      <c r="E75" s="7">
+        <v>745860</v>
+      </c>
+      <c r="F75" s="7">
+        <v>18192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C76" s="7">
+        <v>677314</v>
+      </c>
+      <c r="D76" s="7">
+        <v>16520</v>
+      </c>
+      <c r="E76" s="7">
+        <v>723881</v>
+      </c>
+      <c r="F76" s="7">
+        <v>17656</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C77" s="7">
+        <v>805400</v>
+      </c>
+      <c r="D77" s="7">
+        <v>19644</v>
+      </c>
+      <c r="E77" s="7">
+        <v>730566</v>
+      </c>
+      <c r="F77" s="7">
+        <v>17819</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C78" s="7">
+        <v>648952</v>
+      </c>
+      <c r="D78" s="7">
+        <v>15828</v>
+      </c>
+      <c r="E78" s="7">
+        <v>735056</v>
+      </c>
+      <c r="F78" s="7">
+        <v>17928</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C79" s="7">
+        <v>607203</v>
+      </c>
+      <c r="D79" s="7">
+        <v>14810</v>
+      </c>
+      <c r="E79" s="7">
+        <v>742174</v>
+      </c>
+      <c r="F79" s="7">
+        <v>18102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C80" s="7">
+        <v>663099</v>
+      </c>
+      <c r="D80" s="7">
+        <v>16173</v>
+      </c>
+      <c r="E80" s="7">
+        <v>740577</v>
+      </c>
+      <c r="F80" s="7">
+        <v>18063</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C81" s="7">
+        <v>810741</v>
+      </c>
+      <c r="D81" s="7">
+        <v>19774</v>
+      </c>
+      <c r="E81" s="7">
+        <v>735028</v>
+      </c>
+      <c r="F81" s="7">
+        <v>17928</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B82" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C82" s="7">
+        <v>746323</v>
+      </c>
+      <c r="D82" s="7">
+        <v>18203</v>
+      </c>
+      <c r="E82" s="7">
+        <v>753331</v>
+      </c>
+      <c r="F82" s="7">
+        <v>18374</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C83" s="7">
+        <v>727875</v>
+      </c>
+      <c r="D83" s="7">
+        <v>17753</v>
+      </c>
+      <c r="E83" s="7">
+        <v>710690</v>
+      </c>
+      <c r="F83" s="7">
+        <v>17334</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C84" s="7">
+        <v>710557</v>
+      </c>
+      <c r="D84" s="7">
+        <v>17331</v>
+      </c>
+      <c r="E84" s="7">
+        <v>705569</v>
+      </c>
+      <c r="F84" s="7">
+        <v>17209</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C85" s="7">
+        <v>708639</v>
+      </c>
+      <c r="D85" s="7">
+        <v>17284</v>
+      </c>
+      <c r="E85" s="7">
+        <v>722367</v>
+      </c>
+      <c r="F85" s="7">
+        <v>17619</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C86" s="7">
+        <v>792029</v>
+      </c>
+      <c r="D86" s="7">
+        <v>19318</v>
+      </c>
+      <c r="E86" s="7">
+        <v>719788</v>
+      </c>
+      <c r="F86" s="7">
+        <v>17556</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C87" s="7">
+        <v>721928</v>
+      </c>
+      <c r="D87" s="7">
+        <v>17608</v>
+      </c>
+      <c r="E87" s="7">
+        <v>717065</v>
+      </c>
+      <c r="F87" s="7">
+        <v>17489</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C88" s="7">
+        <v>755347</v>
+      </c>
+      <c r="D88" s="7">
+        <v>18423</v>
+      </c>
+      <c r="E88" s="7">
+        <v>743388</v>
+      </c>
+      <c r="F88" s="7">
+        <v>18131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B89" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C89" s="7">
+        <v>813050</v>
+      </c>
+      <c r="D89" s="7">
+        <v>19830</v>
+      </c>
+      <c r="E89" s="7">
+        <v>734953</v>
+      </c>
+      <c r="F89" s="7">
+        <v>17926</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C90" s="7">
+        <v>806142</v>
+      </c>
+      <c r="D90" s="7">
+        <v>19662</v>
+      </c>
+      <c r="E90" s="7">
+        <v>705701</v>
+      </c>
+      <c r="F90" s="7">
+        <v>17212</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C91" s="7">
+        <v>697107</v>
+      </c>
+      <c r="D91" s="7">
+        <v>17003</v>
+      </c>
+      <c r="E91" s="7">
+        <v>735927</v>
+      </c>
+      <c r="F91" s="7">
+        <v>17949</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C92" s="7">
+        <v>590769</v>
+      </c>
+      <c r="D92" s="7">
+        <v>14409</v>
+      </c>
+      <c r="E92" s="7">
+        <v>729839</v>
+      </c>
+      <c r="F92" s="7">
+        <v>17801</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C93" s="7">
+        <v>763584</v>
+      </c>
+      <c r="D93" s="7">
+        <v>18624</v>
+      </c>
+      <c r="E93" s="7">
+        <v>760822</v>
+      </c>
+      <c r="F93" s="7">
+        <v>18557</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="7">
+        <v>639510</v>
+      </c>
+      <c r="D94" s="7">
+        <v>15598</v>
+      </c>
+      <c r="E94" s="7">
+        <v>725099</v>
+      </c>
+      <c r="F94" s="7">
+        <v>17685</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C95" s="7">
+        <v>671404</v>
+      </c>
+      <c r="D95" s="7">
+        <v>16376</v>
+      </c>
+      <c r="E95" s="7">
+        <v>722558</v>
+      </c>
+      <c r="F95" s="7">
+        <v>17623</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C96" s="7">
+        <v>851824</v>
+      </c>
+      <c r="D96" s="7">
+        <v>20776</v>
+      </c>
+      <c r="E96" s="7">
+        <v>739242</v>
+      </c>
+      <c r="F96" s="7">
+        <v>18030</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C97" s="7">
+        <v>843042</v>
+      </c>
+      <c r="D97" s="7">
+        <v>20562</v>
+      </c>
+      <c r="E97" s="7">
+        <v>781477</v>
+      </c>
+      <c r="F97" s="7">
+        <v>19060</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C98" s="7">
+        <v>811453</v>
+      </c>
+      <c r="D98" s="7">
+        <v>19792</v>
+      </c>
+      <c r="E98" s="7">
+        <v>712566</v>
+      </c>
+      <c r="F98" s="7">
+        <v>17380</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C99" s="7">
+        <v>702796</v>
+      </c>
+      <c r="D99" s="7">
+        <v>17141</v>
+      </c>
+      <c r="E99" s="7">
+        <v>732712</v>
+      </c>
+      <c r="F99" s="7">
+        <v>17871</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C100" s="7">
+        <v>713945</v>
+      </c>
+      <c r="D100" s="7">
+        <v>17413</v>
+      </c>
+      <c r="E100" s="7">
+        <v>736330</v>
+      </c>
+      <c r="F100" s="7">
+        <v>17959</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C101" s="7">
+        <v>803436</v>
+      </c>
+      <c r="D101" s="7">
+        <v>19596</v>
+      </c>
+      <c r="E101" s="7">
+        <v>774248</v>
+      </c>
+      <c r="F101" s="7">
+        <v>18884</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C102" s="7">
+        <v>732722</v>
+      </c>
+      <c r="D102" s="7">
+        <v>17871</v>
+      </c>
+      <c r="E102" s="7">
+        <v>753134</v>
+      </c>
+      <c r="F102" s="7">
+        <v>18369</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C103" s="7">
+        <v>658119</v>
+      </c>
+      <c r="D103" s="7">
+        <v>16052</v>
+      </c>
+      <c r="E103" s="7">
+        <v>727547</v>
+      </c>
+      <c r="F103" s="7">
+        <v>17745</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C104" s="7">
+        <v>697812</v>
+      </c>
+      <c r="D104" s="7">
+        <v>17020</v>
+      </c>
+      <c r="E104" s="7">
+        <v>729030</v>
+      </c>
+      <c r="F104" s="7">
+        <v>17781</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C105" s="7">
+        <v>776328</v>
+      </c>
+      <c r="D105" s="7">
+        <v>18935</v>
+      </c>
+      <c r="E105" s="7">
+        <v>766568</v>
+      </c>
+      <c r="F105" s="7">
+        <v>18697</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B106" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C106" s="7">
+        <v>653863</v>
+      </c>
+      <c r="D106" s="7">
+        <v>15948</v>
+      </c>
+      <c r="E106" s="7">
+        <v>711289</v>
+      </c>
+      <c r="F106" s="7">
+        <v>17349</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C107" s="7">
+        <v>804910</v>
+      </c>
+      <c r="D107" s="7">
+        <v>19632</v>
+      </c>
+      <c r="E107" s="7">
+        <v>745274</v>
+      </c>
+      <c r="F107" s="7">
+        <v>18177</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C108" s="7">
+        <v>685303</v>
+      </c>
+      <c r="D108" s="7">
+        <v>16715</v>
+      </c>
+      <c r="E108" s="7">
+        <v>753614</v>
+      </c>
+      <c r="F108" s="7">
+        <v>18381</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B109" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C109" s="7">
+        <v>699308</v>
+      </c>
+      <c r="D109" s="7">
+        <v>17056</v>
+      </c>
+      <c r="E109" s="7">
+        <v>731886</v>
+      </c>
+      <c r="F109" s="7">
+        <v>17851</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C110" s="7">
+        <v>673920</v>
+      </c>
+      <c r="D110" s="7">
+        <v>16437</v>
+      </c>
+      <c r="E110" s="7">
+        <v>734378</v>
+      </c>
+      <c r="F110" s="7">
+        <v>17912</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B111" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C111" s="7">
+        <v>792608</v>
+      </c>
+      <c r="D111" s="7">
+        <v>19332</v>
+      </c>
+      <c r="E111" s="7">
+        <v>745965</v>
+      </c>
+      <c r="F111" s="7">
+        <v>18194</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B112" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C112" s="7">
+        <v>746323</v>
+      </c>
+      <c r="D112" s="7">
+        <v>18203</v>
+      </c>
+      <c r="E112" s="7">
+        <v>773542</v>
+      </c>
+      <c r="F112" s="7">
+        <v>18867</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B113" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C113" s="7">
+        <v>734531</v>
+      </c>
+      <c r="D113" s="7">
+        <v>17915</v>
+      </c>
+      <c r="E113" s="7">
+        <v>723704</v>
+      </c>
+      <c r="F113" s="7">
+        <v>17651</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B114" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C114" s="7">
+        <v>833503</v>
+      </c>
+      <c r="D114" s="7">
+        <v>20329</v>
+      </c>
+      <c r="E114" s="7">
+        <v>737198</v>
+      </c>
+      <c r="F114" s="7">
+        <v>17980</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B115" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C115" s="7">
+        <v>690576</v>
+      </c>
+      <c r="D115" s="7">
+        <v>16843</v>
+      </c>
+      <c r="E115" s="7">
+        <v>722045</v>
+      </c>
+      <c r="F115" s="7">
+        <v>17611</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B116" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C116" s="7">
+        <v>795328</v>
+      </c>
+      <c r="D116" s="7">
+        <v>19398</v>
+      </c>
+      <c r="E116" s="7">
+        <v>719823</v>
+      </c>
+      <c r="F116" s="7">
+        <v>17557</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B117" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C117" s="7">
+        <v>719903</v>
+      </c>
+      <c r="D117" s="7">
+        <v>17559</v>
+      </c>
+      <c r="E117" s="7">
+        <v>716618</v>
+      </c>
+      <c r="F117" s="7">
+        <v>17478</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B118" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C118" s="7">
+        <v>754562</v>
+      </c>
+      <c r="D118" s="7">
+        <v>18404</v>
+      </c>
+      <c r="E118" s="7">
+        <v>755528</v>
+      </c>
+      <c r="F118" s="7">
+        <v>18428</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B119" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C119" s="7">
+        <v>813431</v>
+      </c>
+      <c r="D119" s="7">
+        <v>19840</v>
+      </c>
+      <c r="E119" s="7">
+        <v>724603</v>
+      </c>
+      <c r="F119" s="7">
+        <v>17673</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B120" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C120" s="7">
+        <v>734806</v>
+      </c>
+      <c r="D120" s="7">
+        <v>17922</v>
+      </c>
+      <c r="E120" s="7">
+        <v>717311</v>
+      </c>
+      <c r="F120" s="7">
+        <v>17495</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B121" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C121" s="7">
+        <v>739302</v>
+      </c>
+      <c r="D121" s="7">
+        <v>18032</v>
+      </c>
+      <c r="E121" s="7">
+        <v>724971</v>
+      </c>
+      <c r="F121" s="7">
+        <v>17682</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C122" s="8">
+        <v>630440</v>
+      </c>
+      <c r="D122" s="8">
+        <v>15377</v>
+      </c>
+      <c r="E122" s="8">
+        <v>729237</v>
+      </c>
+      <c r="F122" s="8">
+        <v>17786</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C123" s="8">
+        <v>763584</v>
+      </c>
+      <c r="D123" s="8">
+        <v>18624</v>
+      </c>
+      <c r="E123" s="8">
+        <v>765533</v>
+      </c>
+      <c r="F123" s="8">
+        <v>18672</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C124" s="8">
+        <v>612597</v>
+      </c>
+      <c r="D124" s="8">
+        <v>14941</v>
+      </c>
+      <c r="E124" s="8">
+        <v>741515</v>
+      </c>
+      <c r="F124" s="8">
+        <v>18086</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C125" s="8">
+        <v>676570</v>
+      </c>
+      <c r="D125" s="8">
+        <v>16502</v>
+      </c>
+      <c r="E125" s="8">
+        <v>723570</v>
+      </c>
+      <c r="F125" s="8">
+        <v>17648</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C126" s="8">
+        <v>823475</v>
+      </c>
+      <c r="D126" s="8">
+        <v>20085</v>
+      </c>
+      <c r="E126" s="8">
+        <v>730710</v>
+      </c>
+      <c r="F126" s="8">
+        <v>17822</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C127" s="8">
+        <v>793337</v>
+      </c>
+      <c r="D127" s="8">
+        <v>19350</v>
+      </c>
+      <c r="E127" s="8">
+        <v>722921</v>
+      </c>
+      <c r="F127" s="8">
+        <v>17632</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C128" s="8">
+        <v>820569</v>
+      </c>
+      <c r="D128" s="8">
+        <v>20014</v>
+      </c>
+      <c r="E128" s="8">
+        <v>741033</v>
+      </c>
+      <c r="F128" s="8">
+        <v>18074</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C129" s="8">
+        <v>756457</v>
+      </c>
+      <c r="D129" s="8">
+        <v>18450</v>
+      </c>
+      <c r="E129" s="8">
+        <v>716494</v>
+      </c>
+      <c r="F129" s="8">
+        <v>17475</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C130" s="8">
+        <v>675963</v>
+      </c>
+      <c r="D130" s="8">
+        <v>16487</v>
+      </c>
+      <c r="E130" s="8">
+        <v>730583</v>
+      </c>
+      <c r="F130" s="8">
+        <v>17819</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C131" s="8">
+        <v>803436</v>
+      </c>
+      <c r="D131" s="8">
+        <v>19596</v>
+      </c>
+      <c r="E131" s="8">
+        <v>770397</v>
+      </c>
+      <c r="F131" s="8">
+        <v>18790</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C132" s="8">
+        <v>740392</v>
+      </c>
+      <c r="D132" s="8">
+        <v>18058</v>
+      </c>
+      <c r="E132" s="8">
+        <v>734766</v>
+      </c>
+      <c r="F132" s="8">
+        <v>17921</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>16</v>
+      </c>
+      <c r="B133" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C133" s="8">
+        <v>689310</v>
+      </c>
+      <c r="D133" s="8">
+        <v>16812</v>
+      </c>
+      <c r="E133" s="8">
+        <v>732774</v>
+      </c>
+      <c r="F133" s="8">
+        <v>17873</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>17</v>
+      </c>
+      <c r="B134" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C134" s="8">
+        <v>710327</v>
+      </c>
+      <c r="D134" s="8">
+        <v>17325</v>
+      </c>
+      <c r="E134" s="8">
+        <v>706573</v>
+      </c>
+      <c r="F134" s="8">
+        <v>17233</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>18</v>
+      </c>
+      <c r="B135" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C135" s="8">
+        <v>778877</v>
+      </c>
+      <c r="D135" s="8">
+        <v>18997</v>
+      </c>
+      <c r="E135" s="8">
+        <v>773355</v>
+      </c>
+      <c r="F135" s="8">
+        <v>18862</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>19</v>
+      </c>
+      <c r="B136" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C136" s="8">
+        <v>638332</v>
+      </c>
+      <c r="D136" s="8">
+        <v>15569</v>
+      </c>
+      <c r="E136" s="8">
+        <v>720763</v>
+      </c>
+      <c r="F136" s="8">
+        <v>17580</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>20</v>
+      </c>
+      <c r="B137" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C137" s="8">
+        <v>805264</v>
+      </c>
+      <c r="D137" s="8">
+        <v>19641</v>
+      </c>
+      <c r="E137" s="8">
+        <v>745217</v>
+      </c>
+      <c r="F137" s="8">
+        <v>18176</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C138" s="8">
+        <v>721692</v>
+      </c>
+      <c r="D138" s="8">
+        <v>17602</v>
+      </c>
+      <c r="E138" s="8">
+        <v>747607</v>
+      </c>
+      <c r="F138" s="8">
+        <v>18234</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>22</v>
+      </c>
+      <c r="B139" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C139" s="8">
+        <v>627543</v>
+      </c>
+      <c r="D139" s="8">
+        <v>15306</v>
+      </c>
+      <c r="E139" s="8">
+        <v>723775</v>
+      </c>
+      <c r="F139" s="8">
+        <v>17653</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>23</v>
+      </c>
+      <c r="B140" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C140" s="8">
+        <v>656183</v>
+      </c>
+      <c r="D140" s="8">
+        <v>16004</v>
+      </c>
+      <c r="E140" s="8">
+        <v>724356</v>
+      </c>
+      <c r="F140" s="8">
+        <v>17667</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>24</v>
+      </c>
+      <c r="B141" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C141" s="8">
+        <v>779087</v>
+      </c>
+      <c r="D141" s="8">
+        <v>19002</v>
+      </c>
+      <c r="E141" s="8">
+        <v>720226</v>
+      </c>
+      <c r="F141" s="8">
+        <v>17566</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>25</v>
+      </c>
+      <c r="B142" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C142" s="8">
+        <v>746350</v>
+      </c>
+      <c r="D142" s="8">
+        <v>18204</v>
+      </c>
+      <c r="E142" s="8">
+        <v>732517</v>
+      </c>
+      <c r="F142" s="8">
+        <v>17866</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C143" s="8">
+        <v>720024</v>
+      </c>
+      <c r="D143" s="8">
+        <v>17562</v>
+      </c>
+      <c r="E143" s="8">
+        <v>724048</v>
+      </c>
+      <c r="F143" s="8">
+        <v>17660</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>27</v>
+      </c>
+      <c r="B144" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C144" s="8">
+        <v>838564</v>
+      </c>
+      <c r="D144" s="8">
+        <v>20453</v>
+      </c>
+      <c r="E144" s="8">
+        <v>733699</v>
+      </c>
+      <c r="F144" s="8">
+        <v>17895</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>28</v>
+      </c>
+      <c r="B145" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C145" s="8">
+        <v>627023</v>
+      </c>
+      <c r="D145" s="8">
+        <v>15293</v>
+      </c>
+      <c r="E145" s="8">
+        <v>737301</v>
+      </c>
+      <c r="F145" s="8">
+        <v>17983</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>29</v>
+      </c>
+      <c r="B146" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C146" s="8">
+        <v>799345</v>
+      </c>
+      <c r="D146" s="8">
+        <v>19496</v>
+      </c>
+      <c r="E146" s="8">
+        <v>735976</v>
+      </c>
+      <c r="F146" s="8">
+        <v>17951</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>30</v>
+      </c>
+      <c r="B147" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C147" s="8">
+        <v>700975</v>
+      </c>
+      <c r="D147" s="8">
+        <v>17097</v>
+      </c>
+      <c r="E147" s="8">
+        <v>705164</v>
+      </c>
+      <c r="F147" s="8">
+        <v>17199</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>31</v>
+      </c>
+      <c r="B148" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C148" s="8">
+        <v>750616</v>
+      </c>
+      <c r="D148" s="8">
+        <v>18308</v>
+      </c>
+      <c r="E148" s="8">
+        <v>712647</v>
+      </c>
+      <c r="F148" s="8">
+        <v>17382</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>32</v>
+      </c>
+      <c r="B149" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C149" s="8">
+        <v>812822</v>
+      </c>
+      <c r="D149" s="8">
+        <v>19825</v>
+      </c>
+      <c r="E149" s="8">
+        <v>747839</v>
+      </c>
+      <c r="F149" s="8">
+        <v>18240</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>33</v>
+      </c>
+      <c r="B150" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C150" s="8">
+        <v>732240</v>
+      </c>
+      <c r="D150" s="8">
+        <v>17860</v>
+      </c>
+      <c r="E150" s="8">
+        <v>718204</v>
+      </c>
+      <c r="F150" s="8">
+        <v>17517</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>34</v>
+      </c>
+      <c r="B151" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C151" s="8">
+        <v>716996</v>
+      </c>
+      <c r="D151" s="8">
+        <v>17488</v>
+      </c>
+      <c r="E151" s="8">
+        <v>717896</v>
+      </c>
+      <c r="F151" s="8">
+        <v>17510</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9100920A-ECA8-3844-AA0C-A7A35F74A573}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A14" zoomScale="92" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -525,7 +3579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -542,7 +3596,7 @@
         <v>17786</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -559,7 +3613,7 @@
         <v>18672</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -576,7 +3630,7 @@
         <v>18086</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -593,7 +3647,7 @@
         <v>17648</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -610,7 +3664,7 @@
         <v>17822</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -627,7 +3681,7 @@
         <v>17632</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -644,7 +3698,7 @@
         <v>18074</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -661,7 +3715,7 @@
         <v>17475</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -678,7 +3732,7 @@
         <v>17819</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -695,7 +3749,7 @@
         <v>18790</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -712,7 +3766,7 @@
         <v>17921</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -729,7 +3783,7 @@
         <v>17873</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -746,7 +3800,7 @@
         <v>17233</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -763,7 +3817,7 @@
         <v>18862</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -780,7 +3834,7 @@
         <v>17580</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -797,7 +3851,7 @@
         <v>18176</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -814,7 +3868,7 @@
         <v>18234</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -831,7 +3885,7 @@
         <v>17653</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -848,7 +3902,7 @@
         <v>17667</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -865,7 +3919,7 @@
         <v>17566</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -882,7 +3936,7 @@
         <v>17866</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -899,7 +3953,7 @@
         <v>17660</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -916,7 +3970,7 @@
         <v>17895</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -933,7 +3987,7 @@
         <v>17983</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -950,7 +4004,7 @@
         <v>17951</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -967,7 +4021,7 @@
         <v>17199</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -984,7 +4038,7 @@
         <v>17382</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1001,7 +4055,7 @@
         <v>18240</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1018,7 +4072,7 @@
         <v>17517</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1041,20 +4095,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB65DC3-8E1F-4246-9BFC-205F14D553BE}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="A2" sqref="A2:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -1071,7 +4125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1088,7 +4142,7 @@
         <v>17801</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1105,7 +4159,7 @@
         <v>18557</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1122,7 +4176,7 @@
         <v>17685</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1139,7 +4193,7 @@
         <v>17623</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1156,7 +4210,7 @@
         <v>18030</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1173,7 +4227,7 @@
         <v>19060</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1190,7 +4244,7 @@
         <v>17380</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1207,7 +4261,7 @@
         <v>17871</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1224,7 +4278,7 @@
         <v>17959</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1241,7 +4295,7 @@
         <v>18884</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1258,7 +4312,7 @@
         <v>18369</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1275,7 +4329,7 @@
         <v>17745</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1292,7 +4346,7 @@
         <v>17781</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -1309,7 +4363,7 @@
         <v>18697</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -1326,7 +4380,7 @@
         <v>17349</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1343,7 +4397,7 @@
         <v>18177</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -1360,7 +4414,7 @@
         <v>18381</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -1377,7 +4431,7 @@
         <v>17851</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -1394,7 +4448,7 @@
         <v>17912</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -1411,7 +4465,7 @@
         <v>18194</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -1428,7 +4482,7 @@
         <v>18867</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -1445,7 +4499,7 @@
         <v>17651</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1462,7 +4516,7 @@
         <v>17980</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
@@ -1479,7 +4533,7 @@
         <v>17611</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
@@ -1496,7 +4550,7 @@
         <v>17557</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -1513,7 +4567,7 @@
         <v>17478</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
@@ -1530,7 +4584,7 @@
         <v>18428</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
@@ -1547,7 +4601,7 @@
         <v>17673</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
@@ -1564,7 +4618,7 @@
         <v>17495</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
@@ -1579,551 +4633,6 @@
       </c>
       <c r="E31" s="3">
         <v>17682</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09C54B0-7942-7849-8963-C1A45A33396A}">
-  <dimension ref="A1:E31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3">
-        <v>654306</v>
-      </c>
-      <c r="C2" s="3">
-        <v>15959</v>
-      </c>
-      <c r="D2" s="3">
-        <v>730479</v>
-      </c>
-      <c r="E2" s="3">
-        <v>17817</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>760690</v>
-      </c>
-      <c r="C3" s="3">
-        <v>18553</v>
-      </c>
-      <c r="D3" s="3">
-        <v>750843</v>
-      </c>
-      <c r="E3" s="3">
-        <v>18313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3">
-        <v>632608</v>
-      </c>
-      <c r="C4" s="3">
-        <v>15429</v>
-      </c>
-      <c r="D4" s="3">
-        <v>727958</v>
-      </c>
-      <c r="E4" s="3">
-        <v>17755</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3">
-        <v>710643</v>
-      </c>
-      <c r="C5" s="3">
-        <v>17333</v>
-      </c>
-      <c r="D5" s="3">
-        <v>720119</v>
-      </c>
-      <c r="E5" s="3">
-        <v>17564</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3">
-        <v>888882</v>
-      </c>
-      <c r="C6" s="3">
-        <v>21680</v>
-      </c>
-      <c r="D6" s="3">
-        <v>739359</v>
-      </c>
-      <c r="E6" s="3">
-        <v>18033</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3">
-        <v>843042</v>
-      </c>
-      <c r="C7" s="3">
-        <v>20562</v>
-      </c>
-      <c r="D7" s="3">
-        <v>779880</v>
-      </c>
-      <c r="E7" s="3">
-        <v>19021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3">
-        <v>811366</v>
-      </c>
-      <c r="C8" s="3">
-        <v>19789</v>
-      </c>
-      <c r="D8" s="3">
-        <v>718291</v>
-      </c>
-      <c r="E8" s="3">
-        <v>17519</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3">
-        <v>605585</v>
-      </c>
-      <c r="C9" s="3">
-        <v>14770</v>
-      </c>
-      <c r="D9" s="3">
-        <v>714236</v>
-      </c>
-      <c r="E9" s="3">
-        <v>17420</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3">
-        <v>655141</v>
-      </c>
-      <c r="C10" s="3">
-        <v>15979</v>
-      </c>
-      <c r="D10" s="3">
-        <v>725680</v>
-      </c>
-      <c r="E10" s="3">
-        <v>17700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3">
-        <v>803436</v>
-      </c>
-      <c r="C11" s="3">
-        <v>19596</v>
-      </c>
-      <c r="D11" s="3">
-        <v>779621</v>
-      </c>
-      <c r="E11" s="3">
-        <v>19015</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3">
-        <v>695903</v>
-      </c>
-      <c r="C12" s="3">
-        <v>16973</v>
-      </c>
-      <c r="D12" s="3">
-        <v>743761</v>
-      </c>
-      <c r="E12" s="3">
-        <v>18141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3">
-        <v>684578</v>
-      </c>
-      <c r="C13" s="3">
-        <v>16697</v>
-      </c>
-      <c r="D13" s="3">
-        <v>731786</v>
-      </c>
-      <c r="E13" s="3">
-        <v>17848</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3">
-        <v>782609</v>
-      </c>
-      <c r="C14" s="3">
-        <v>19088</v>
-      </c>
-      <c r="D14" s="3">
-        <v>733478</v>
-      </c>
-      <c r="E14" s="3">
-        <v>17890</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3">
-        <v>776917</v>
-      </c>
-      <c r="C15" s="3">
-        <v>18949</v>
-      </c>
-      <c r="D15" s="3">
-        <v>745860</v>
-      </c>
-      <c r="E15" s="3">
-        <v>18192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="3">
-        <v>677314</v>
-      </c>
-      <c r="C16" s="3">
-        <v>16520</v>
-      </c>
-      <c r="D16" s="3">
-        <v>723881</v>
-      </c>
-      <c r="E16" s="3">
-        <v>17656</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="3">
-        <v>805400</v>
-      </c>
-      <c r="C17" s="3">
-        <v>19644</v>
-      </c>
-      <c r="D17" s="3">
-        <v>730566</v>
-      </c>
-      <c r="E17" s="3">
-        <v>17819</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3">
-        <v>648952</v>
-      </c>
-      <c r="C18" s="3">
-        <v>15828</v>
-      </c>
-      <c r="D18" s="3">
-        <v>735056</v>
-      </c>
-      <c r="E18" s="3">
-        <v>17928</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="3">
-        <v>607203</v>
-      </c>
-      <c r="C19" s="3">
-        <v>14810</v>
-      </c>
-      <c r="D19" s="3">
-        <v>742174</v>
-      </c>
-      <c r="E19" s="3">
-        <v>18102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="3">
-        <v>663099</v>
-      </c>
-      <c r="C20" s="3">
-        <v>16173</v>
-      </c>
-      <c r="D20" s="3">
-        <v>740577</v>
-      </c>
-      <c r="E20" s="3">
-        <v>18063</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="3">
-        <v>810741</v>
-      </c>
-      <c r="C21" s="3">
-        <v>19774</v>
-      </c>
-      <c r="D21" s="3">
-        <v>735028</v>
-      </c>
-      <c r="E21" s="3">
-        <v>17928</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="3">
-        <v>746323</v>
-      </c>
-      <c r="C22" s="3">
-        <v>18203</v>
-      </c>
-      <c r="D22" s="3">
-        <v>753331</v>
-      </c>
-      <c r="E22" s="3">
-        <v>18374</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="3">
-        <v>727875</v>
-      </c>
-      <c r="C23" s="3">
-        <v>17753</v>
-      </c>
-      <c r="D23" s="3">
-        <v>710690</v>
-      </c>
-      <c r="E23" s="3">
-        <v>17334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="3">
-        <v>710557</v>
-      </c>
-      <c r="C24" s="3">
-        <v>17331</v>
-      </c>
-      <c r="D24" s="3">
-        <v>705569</v>
-      </c>
-      <c r="E24" s="3">
-        <v>17209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="3">
-        <v>708639</v>
-      </c>
-      <c r="C25" s="3">
-        <v>17284</v>
-      </c>
-      <c r="D25" s="3">
-        <v>722367</v>
-      </c>
-      <c r="E25" s="3">
-        <v>17619</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="3">
-        <v>792029</v>
-      </c>
-      <c r="C26" s="3">
-        <v>19318</v>
-      </c>
-      <c r="D26" s="3">
-        <v>719788</v>
-      </c>
-      <c r="E26" s="3">
-        <v>17556</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="3">
-        <v>721928</v>
-      </c>
-      <c r="C27" s="3">
-        <v>17608</v>
-      </c>
-      <c r="D27" s="3">
-        <v>717065</v>
-      </c>
-      <c r="E27" s="3">
-        <v>17489</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="3">
-        <v>755347</v>
-      </c>
-      <c r="C28" s="3">
-        <v>18423</v>
-      </c>
-      <c r="D28" s="3">
-        <v>743388</v>
-      </c>
-      <c r="E28" s="3">
-        <v>18131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="3">
-        <v>813050</v>
-      </c>
-      <c r="C29" s="3">
-        <v>19830</v>
-      </c>
-      <c r="D29" s="3">
-        <v>734953</v>
-      </c>
-      <c r="E29" s="3">
-        <v>17926</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="3">
-        <v>806142</v>
-      </c>
-      <c r="C30" s="3">
-        <v>19662</v>
-      </c>
-      <c r="D30" s="3">
-        <v>705701</v>
-      </c>
-      <c r="E30" s="3">
-        <v>17212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="3">
-        <v>697107</v>
-      </c>
-      <c r="C31" s="3">
-        <v>17003</v>
-      </c>
-      <c r="D31" s="3">
-        <v>735927</v>
-      </c>
-      <c r="E31" s="3">
-        <v>17949</v>
       </c>
     </row>
   </sheetData>
@@ -2132,19 +4641,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E18B96-1495-4A47-8210-BD1BD6CEB16D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09C54B0-7942-7849-8963-C1A45A33396A}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -2161,93 +4670,93 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <v>690150</v>
+        <v>654306</v>
       </c>
       <c r="C2" s="3">
-        <v>16833</v>
+        <v>15959</v>
       </c>
       <c r="D2" s="3">
-        <v>722066</v>
+        <v>730479</v>
       </c>
       <c r="E2" s="3">
-        <v>17611</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+        <v>17817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3">
-        <v>749076</v>
+        <v>760690</v>
       </c>
       <c r="C3" s="3">
-        <v>18270</v>
+        <v>18553</v>
       </c>
       <c r="D3" s="3">
-        <v>715023</v>
+        <v>750843</v>
       </c>
       <c r="E3" s="3">
-        <v>17440</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+        <v>18313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3">
-        <v>620142</v>
+        <v>632608</v>
       </c>
       <c r="C4" s="3">
-        <v>15125</v>
+        <v>15429</v>
       </c>
       <c r="D4" s="3">
-        <v>742352</v>
+        <v>727958</v>
       </c>
       <c r="E4" s="3">
-        <v>18106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+        <v>17755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3">
-        <v>716894</v>
+        <v>710643</v>
       </c>
       <c r="C5" s="3">
-        <v>17485</v>
+        <v>17333</v>
       </c>
       <c r="D5" s="3">
-        <v>729157</v>
+        <v>720119</v>
       </c>
       <c r="E5" s="3">
-        <v>17784</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+        <v>17564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3">
-        <v>894659</v>
+        <v>888882</v>
       </c>
       <c r="C6" s="3">
-        <v>21821</v>
+        <v>21680</v>
       </c>
       <c r="D6" s="3">
-        <v>744400</v>
+        <v>739359</v>
       </c>
       <c r="E6" s="3">
-        <v>18156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+        <v>18033</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3">
@@ -2257,65 +4766,65 @@
         <v>20562</v>
       </c>
       <c r="D7" s="3">
-        <v>775317</v>
+        <v>779880</v>
       </c>
       <c r="E7" s="3">
-        <v>18910</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+        <v>19021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3">
-        <v>825901</v>
+        <v>811366</v>
       </c>
       <c r="C8" s="3">
-        <v>20144</v>
+        <v>19789</v>
       </c>
       <c r="D8" s="3">
-        <v>726812</v>
+        <v>718291</v>
       </c>
       <c r="E8" s="3">
-        <v>17727</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+        <v>17519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3">
-        <v>577898</v>
+        <v>605585</v>
       </c>
       <c r="C9" s="3">
-        <v>14095</v>
+        <v>14770</v>
       </c>
       <c r="D9" s="3">
-        <v>729120</v>
+        <v>714236</v>
       </c>
       <c r="E9" s="3">
-        <v>17783</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+        <v>17420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3">
-        <v>677138</v>
+        <v>655141</v>
       </c>
       <c r="C10" s="3">
-        <v>16516</v>
+        <v>15979</v>
       </c>
       <c r="D10" s="3">
-        <v>730383</v>
+        <v>725680</v>
       </c>
       <c r="E10" s="3">
-        <v>17814</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="3">
@@ -2325,184 +4834,184 @@
         <v>19596</v>
       </c>
       <c r="D11" s="3">
-        <v>784499</v>
+        <v>779621</v>
       </c>
       <c r="E11" s="3">
-        <v>19134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+        <v>19015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="3">
-        <v>737244</v>
+        <v>695903</v>
       </c>
       <c r="C12" s="3">
-        <v>17982</v>
+        <v>16973</v>
       </c>
       <c r="D12" s="3">
-        <v>727368</v>
+        <v>743761</v>
       </c>
       <c r="E12" s="3">
-        <v>17741</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+        <v>18141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="3">
-        <v>690733</v>
+        <v>684578</v>
       </c>
       <c r="C13" s="3">
-        <v>16847</v>
+        <v>16697</v>
       </c>
       <c r="D13" s="3">
-        <v>731930</v>
+        <v>731786</v>
       </c>
       <c r="E13" s="3">
-        <v>17852</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+        <v>17848</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="3">
-        <v>786910</v>
+        <v>782609</v>
       </c>
       <c r="C14" s="3">
-        <v>19193</v>
+        <v>19088</v>
       </c>
       <c r="D14" s="3">
-        <v>729503</v>
+        <v>733478</v>
       </c>
       <c r="E14" s="3">
-        <v>17793</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+        <v>17890</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="3">
-        <v>778877</v>
+        <v>776917</v>
       </c>
       <c r="C15" s="3">
-        <v>18997</v>
+        <v>18949</v>
       </c>
       <c r="D15" s="3">
-        <v>785143</v>
+        <v>745860</v>
       </c>
       <c r="E15" s="3">
-        <v>19150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+        <v>18192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="3">
-        <v>701894</v>
+        <v>677314</v>
       </c>
       <c r="C16" s="3">
-        <v>17119</v>
+        <v>16520</v>
       </c>
       <c r="D16" s="3">
-        <v>721186</v>
+        <v>723881</v>
       </c>
       <c r="E16" s="3">
-        <v>17590</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+        <v>17656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="3">
-        <v>809350</v>
+        <v>805400</v>
       </c>
       <c r="C17" s="3">
-        <v>19740</v>
+        <v>19644</v>
       </c>
       <c r="D17" s="3">
-        <v>739821</v>
+        <v>730566</v>
       </c>
       <c r="E17" s="3">
-        <v>18044</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+        <v>17819</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="3">
-        <v>621808</v>
+        <v>648952</v>
       </c>
       <c r="C18" s="3">
-        <v>15166</v>
+        <v>15828</v>
       </c>
       <c r="D18" s="3">
-        <v>722548</v>
+        <v>735056</v>
       </c>
       <c r="E18" s="3">
-        <v>17623</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+        <v>17928</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="3">
-        <v>581178</v>
+        <v>607203</v>
       </c>
       <c r="C19" s="3">
-        <v>14175</v>
+        <v>14810</v>
       </c>
       <c r="D19" s="3">
-        <v>731110</v>
+        <v>742174</v>
       </c>
       <c r="E19" s="3">
-        <v>17832</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+        <v>18102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="3">
-        <v>688549</v>
+        <v>663099</v>
       </c>
       <c r="C20" s="3">
-        <v>16794</v>
+        <v>16173</v>
       </c>
       <c r="D20" s="3">
-        <v>731893</v>
+        <v>740577</v>
       </c>
       <c r="E20" s="3">
-        <v>17851</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+        <v>18063</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="3">
-        <v>812292</v>
+        <v>810741</v>
       </c>
       <c r="C21" s="3">
-        <v>19812</v>
+        <v>19774</v>
       </c>
       <c r="D21" s="3">
-        <v>756070</v>
+        <v>735028</v>
       </c>
       <c r="E21" s="3">
-        <v>18441</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+        <v>17928</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="3">
@@ -2512,163 +5021,163 @@
         <v>18203</v>
       </c>
       <c r="D22" s="3">
-        <v>748617</v>
+        <v>753331</v>
       </c>
       <c r="E22" s="3">
-        <v>18259</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+        <v>18374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="3">
-        <v>719275</v>
+        <v>727875</v>
       </c>
       <c r="C23" s="3">
-        <v>17543</v>
+        <v>17753</v>
       </c>
       <c r="D23" s="3">
-        <v>704188</v>
+        <v>710690</v>
       </c>
       <c r="E23" s="3">
-        <v>17175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+        <v>17334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="3">
-        <v>610121</v>
+        <v>710557</v>
       </c>
       <c r="C24" s="3">
-        <v>14881</v>
+        <v>17331</v>
       </c>
       <c r="D24" s="3">
-        <v>717170</v>
+        <v>705569</v>
       </c>
       <c r="E24" s="3">
-        <v>17492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+        <v>17209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="3">
-        <v>701405</v>
+        <v>708639</v>
       </c>
       <c r="C25" s="3">
-        <v>17107</v>
+        <v>17284</v>
       </c>
       <c r="D25" s="3">
-        <v>709412</v>
+        <v>722367</v>
       </c>
       <c r="E25" s="3">
-        <v>17303</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+        <v>17619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="3">
-        <v>794085</v>
+        <v>792029</v>
       </c>
       <c r="C26" s="3">
-        <v>19368</v>
+        <v>19318</v>
       </c>
       <c r="D26" s="3">
-        <v>725852</v>
+        <v>719788</v>
       </c>
       <c r="E26" s="3">
-        <v>17704</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+        <v>17556</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="3">
-        <v>707526</v>
+        <v>721928</v>
       </c>
       <c r="C27" s="3">
-        <v>17257</v>
+        <v>17608</v>
       </c>
       <c r="D27" s="3">
-        <v>711569</v>
+        <v>717065</v>
       </c>
       <c r="E27" s="3">
-        <v>17355</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+        <v>17489</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="3">
-        <v>756445</v>
+        <v>755347</v>
       </c>
       <c r="C28" s="3">
-        <v>18450</v>
+        <v>18423</v>
       </c>
       <c r="D28" s="3">
-        <v>735470</v>
+        <v>743388</v>
       </c>
       <c r="E28" s="3">
-        <v>17938</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+        <v>18131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="3">
-        <v>812863</v>
+        <v>813050</v>
       </c>
       <c r="C29" s="3">
-        <v>19826</v>
+        <v>19830</v>
       </c>
       <c r="D29" s="3">
-        <v>703668</v>
+        <v>734953</v>
       </c>
       <c r="E29" s="3">
-        <v>17163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+        <v>17926</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="3">
-        <v>791489</v>
+        <v>806142</v>
       </c>
       <c r="C30" s="3">
-        <v>19305</v>
+        <v>19662</v>
       </c>
       <c r="D30" s="3">
-        <v>712518</v>
+        <v>705701</v>
       </c>
       <c r="E30" s="3">
-        <v>17378</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+        <v>17212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="3">
-        <v>725426</v>
+        <v>697107</v>
       </c>
       <c r="C31" s="3">
-        <v>17693</v>
+        <v>17003</v>
       </c>
       <c r="D31" s="3">
-        <v>729274</v>
+        <v>735927</v>
       </c>
       <c r="E31" s="3">
-        <v>17787</v>
+        <v>17949</v>
       </c>
     </row>
   </sheetData>
@@ -2677,19 +5186,564 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E18B96-1495-4A47-8210-BD1BD6CEB16D}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView zoomScale="82" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>690150</v>
+      </c>
+      <c r="C2" s="3">
+        <v>16833</v>
+      </c>
+      <c r="D2" s="3">
+        <v>722066</v>
+      </c>
+      <c r="E2" s="3">
+        <v>17611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>749076</v>
+      </c>
+      <c r="C3" s="3">
+        <v>18270</v>
+      </c>
+      <c r="D3" s="3">
+        <v>715023</v>
+      </c>
+      <c r="E3" s="3">
+        <v>17440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>620142</v>
+      </c>
+      <c r="C4" s="3">
+        <v>15125</v>
+      </c>
+      <c r="D4" s="3">
+        <v>742352</v>
+      </c>
+      <c r="E4" s="3">
+        <v>18106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>716894</v>
+      </c>
+      <c r="C5" s="3">
+        <v>17485</v>
+      </c>
+      <c r="D5" s="3">
+        <v>729157</v>
+      </c>
+      <c r="E5" s="3">
+        <v>17784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>894659</v>
+      </c>
+      <c r="C6" s="3">
+        <v>21821</v>
+      </c>
+      <c r="D6" s="3">
+        <v>744400</v>
+      </c>
+      <c r="E6" s="3">
+        <v>18156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>843042</v>
+      </c>
+      <c r="C7" s="3">
+        <v>20562</v>
+      </c>
+      <c r="D7" s="3">
+        <v>775317</v>
+      </c>
+      <c r="E7" s="3">
+        <v>18910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>825901</v>
+      </c>
+      <c r="C8" s="3">
+        <v>20144</v>
+      </c>
+      <c r="D8" s="3">
+        <v>726812</v>
+      </c>
+      <c r="E8" s="3">
+        <v>17727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>577898</v>
+      </c>
+      <c r="C9" s="3">
+        <v>14095</v>
+      </c>
+      <c r="D9" s="3">
+        <v>729120</v>
+      </c>
+      <c r="E9" s="3">
+        <v>17783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>677138</v>
+      </c>
+      <c r="C10" s="3">
+        <v>16516</v>
+      </c>
+      <c r="D10" s="3">
+        <v>730383</v>
+      </c>
+      <c r="E10" s="3">
+        <v>17814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <v>803436</v>
+      </c>
+      <c r="C11" s="3">
+        <v>19596</v>
+      </c>
+      <c r="D11" s="3">
+        <v>784499</v>
+      </c>
+      <c r="E11" s="3">
+        <v>19134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <v>737244</v>
+      </c>
+      <c r="C12" s="3">
+        <v>17982</v>
+      </c>
+      <c r="D12" s="3">
+        <v>727368</v>
+      </c>
+      <c r="E12" s="3">
+        <v>17741</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>690733</v>
+      </c>
+      <c r="C13" s="3">
+        <v>16847</v>
+      </c>
+      <c r="D13" s="3">
+        <v>731930</v>
+      </c>
+      <c r="E13" s="3">
+        <v>17852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3">
+        <v>786910</v>
+      </c>
+      <c r="C14" s="3">
+        <v>19193</v>
+      </c>
+      <c r="D14" s="3">
+        <v>729503</v>
+      </c>
+      <c r="E14" s="3">
+        <v>17793</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3">
+        <v>778877</v>
+      </c>
+      <c r="C15" s="3">
+        <v>18997</v>
+      </c>
+      <c r="D15" s="3">
+        <v>785143</v>
+      </c>
+      <c r="E15" s="3">
+        <v>19150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3">
+        <v>701894</v>
+      </c>
+      <c r="C16" s="3">
+        <v>17119</v>
+      </c>
+      <c r="D16" s="3">
+        <v>721186</v>
+      </c>
+      <c r="E16" s="3">
+        <v>17590</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3">
+        <v>809350</v>
+      </c>
+      <c r="C17" s="3">
+        <v>19740</v>
+      </c>
+      <c r="D17" s="3">
+        <v>739821</v>
+      </c>
+      <c r="E17" s="3">
+        <v>18044</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3">
+        <v>621808</v>
+      </c>
+      <c r="C18" s="3">
+        <v>15166</v>
+      </c>
+      <c r="D18" s="3">
+        <v>722548</v>
+      </c>
+      <c r="E18" s="3">
+        <v>17623</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3">
+        <v>581178</v>
+      </c>
+      <c r="C19" s="3">
+        <v>14175</v>
+      </c>
+      <c r="D19" s="3">
+        <v>731110</v>
+      </c>
+      <c r="E19" s="3">
+        <v>17832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3">
+        <v>688549</v>
+      </c>
+      <c r="C20" s="3">
+        <v>16794</v>
+      </c>
+      <c r="D20" s="3">
+        <v>731893</v>
+      </c>
+      <c r="E20" s="3">
+        <v>17851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="3">
+        <v>812292</v>
+      </c>
+      <c r="C21" s="3">
+        <v>19812</v>
+      </c>
+      <c r="D21" s="3">
+        <v>756070</v>
+      </c>
+      <c r="E21" s="3">
+        <v>18441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="3">
+        <v>746323</v>
+      </c>
+      <c r="C22" s="3">
+        <v>18203</v>
+      </c>
+      <c r="D22" s="3">
+        <v>748617</v>
+      </c>
+      <c r="E22" s="3">
+        <v>18259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="3">
+        <v>719275</v>
+      </c>
+      <c r="C23" s="3">
+        <v>17543</v>
+      </c>
+      <c r="D23" s="3">
+        <v>704188</v>
+      </c>
+      <c r="E23" s="3">
+        <v>17175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="3">
+        <v>610121</v>
+      </c>
+      <c r="C24" s="3">
+        <v>14881</v>
+      </c>
+      <c r="D24" s="3">
+        <v>717170</v>
+      </c>
+      <c r="E24" s="3">
+        <v>17492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="3">
+        <v>701405</v>
+      </c>
+      <c r="C25" s="3">
+        <v>17107</v>
+      </c>
+      <c r="D25" s="3">
+        <v>709412</v>
+      </c>
+      <c r="E25" s="3">
+        <v>17303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="3">
+        <v>794085</v>
+      </c>
+      <c r="C26" s="3">
+        <v>19368</v>
+      </c>
+      <c r="D26" s="3">
+        <v>725852</v>
+      </c>
+      <c r="E26" s="3">
+        <v>17704</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="3">
+        <v>707526</v>
+      </c>
+      <c r="C27" s="3">
+        <v>17257</v>
+      </c>
+      <c r="D27" s="3">
+        <v>711569</v>
+      </c>
+      <c r="E27" s="3">
+        <v>17355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="3">
+        <v>756445</v>
+      </c>
+      <c r="C28" s="3">
+        <v>18450</v>
+      </c>
+      <c r="D28" s="3">
+        <v>735470</v>
+      </c>
+      <c r="E28" s="3">
+        <v>17938</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="3">
+        <v>812863</v>
+      </c>
+      <c r="C29" s="3">
+        <v>19826</v>
+      </c>
+      <c r="D29" s="3">
+        <v>703668</v>
+      </c>
+      <c r="E29" s="3">
+        <v>17163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="3">
+        <v>791489</v>
+      </c>
+      <c r="C30" s="3">
+        <v>19305</v>
+      </c>
+      <c r="D30" s="3">
+        <v>712518</v>
+      </c>
+      <c r="E30" s="3">
+        <v>17378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="3">
+        <v>725426</v>
+      </c>
+      <c r="C31" s="3">
+        <v>17693</v>
+      </c>
+      <c r="D31" s="3">
+        <v>729274</v>
+      </c>
+      <c r="E31" s="3">
+        <v>17787</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB9C8CF-886E-FF4A-BFCA-46383F76DB2B}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -2706,7 +5760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2723,7 +5777,7 @@
         <v>17582</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -2740,7 +5794,7 @@
         <v>17742</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -2757,7 +5811,7 @@
         <v>18039</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -2774,7 +5828,7 @@
         <v>17654</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2791,7 +5845,7 @@
         <v>18405</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -2808,7 +5862,7 @@
         <v>18916</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -2825,7 +5879,7 @@
         <v>17653</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -2842,7 +5896,7 @@
         <v>17429</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -2859,7 +5913,7 @@
         <v>17866</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -2876,7 +5930,7 @@
         <v>18312</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -2893,7 +5947,7 @@
         <v>17970</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -2910,7 +5964,7 @@
         <v>17893</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -2927,7 +5981,7 @@
         <v>18079</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -2944,7 +5998,7 @@
         <v>17875</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -2961,7 +6015,7 @@
         <v>18017</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -2978,7 +6032,7 @@
         <v>17698</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -2995,7 +6049,7 @@
         <v>17703</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
@@ -3012,7 +6066,7 @@
         <v>18001</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -3029,7 +6083,7 @@
         <v>17641</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
@@ -3046,7 +6100,7 @@
         <v>17463</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
@@ -3063,7 +6117,7 @@
         <v>17957</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
@@ -3080,7 +6134,7 @@
         <v>17586</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
@@ -3097,7 +6151,7 @@
         <v>17665</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
@@ -3114,7 +6168,7 @@
         <v>17586</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
@@ -3131,7 +6185,7 @@
         <v>17657</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
@@ -3148,7 +6202,7 @@
         <v>17515</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -3165,7 +6219,7 @@
         <v>17972</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
@@ -3182,7 +6236,7 @@
         <v>17523</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
@@ -3199,7 +6253,7 @@
         <v>17135</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
